--- a/Stocks/BLUEDART.xlsx
+++ b/Stocks/BLUEDART.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="35">
   <si>
     <t>Scrip</t>
   </si>
@@ -601,7 +601,7 @@
         <v>4826.2333333333336</v>
       </c>
       <c r="H2" t="e">
-        <f t="array" ref="H2:H82">_xll.TA_EMA(G2:G82,3)</f>
+        <f t="array" ref="H2:H104">_xll.TA_EMA(G2:G104,3)</f>
         <v>#N/A</v>
       </c>
       <c r="I2" t="e">
@@ -609,11 +609,11 @@
         <v>#N/A</v>
       </c>
       <c r="J2" t="e">
-        <f t="array" ref="J2:J82">_xll.TA_EMA(D2:D82,8)</f>
+        <f t="array" ref="J2:J104">_xll.TA_EMA(D2:D104,8)</f>
         <v>#N/A</v>
       </c>
       <c r="K2" t="e">
-        <f t="array" ref="K2:K82">_xll.TA_EMA(E2:E82,8)</f>
+        <f t="array" ref="K2:K104">_xll.TA_EMA(E2:E104,8)</f>
         <v>#N/A</v>
       </c>
       <c r="L2" t="e">
@@ -625,7 +625,7 @@
         <v>#N/A</v>
       </c>
       <c r="N2" t="e">
-        <f t="array" ref="N2:N82">_xll.TA_RSI(F2:F82,5)</f>
+        <f t="array" ref="N2:N104">_xll.TA_RSI(F2:F104,5)</f>
         <v>#N/A</v>
       </c>
       <c r="O2" t="e">
@@ -657,11 +657,11 @@
         <v>#N/A</v>
       </c>
       <c r="V2" t="e">
-        <f t="array" ref="V2:V82">_xll.TA_EMA(F2:F82,12)</f>
+        <f t="array" ref="V2:V104">_xll.TA_EMA(F2:F104,12)</f>
         <v>#N/A</v>
       </c>
       <c r="W2" t="e">
-        <f t="array" ref="W2:W82">_xll.TA_EMA(F2:F82,26)</f>
+        <f t="array" ref="W2:W104">_xll.TA_EMA(F2:F104,26)</f>
         <v>#N/A</v>
       </c>
       <c r="X2" t="e">
@@ -669,7 +669,7 @@
         <v>#N/A</v>
       </c>
       <c r="Y2" t="e">
-        <f t="array" ref="Y2:Y82">_xll.TA_EMA(X2:X82,9)</f>
+        <f t="array" ref="Y2:Y104">_xll.TA_EMA(X2:X104,9)</f>
         <v>#N/A</v>
       </c>
       <c r="Z2" t="e">
@@ -8696,7 +8696,7 @@
         <v>4265.9939555955825</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" ref="I67:I82" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
+        <f t="shared" ref="I67:I104" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
         <v>DOWN</v>
       </c>
       <c r="J67">
@@ -8706,42 +8706,42 @@
         <v>4297.4782850047868</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" ref="L67:L82" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="L67:L104" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>DOWN</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" ref="M67:M82" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
+        <f t="shared" ref="M67:M104" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
         <v>DOWN</v>
       </c>
       <c r="N67">
         <v>9.8610485362993661</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" ref="O67:O82" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
+        <f t="shared" ref="O67:O104" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
         <v>DOWN</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" ref="P67:P82" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
+        <f t="shared" ref="P67:P104" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
         <v>DOWN</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q82" si="25">F67-E67</f>
+        <f t="shared" ref="Q67:Q104" si="25">F67-E67</f>
         <v>15</v>
       </c>
       <c r="R67">
-        <f t="shared" ref="R67:R82" si="26">D67-E67</f>
+        <f t="shared" ref="R67:R104" si="26">D67-E67</f>
         <v>113</v>
       </c>
       <c r="S67">
-        <f t="shared" ref="S67:S82" si="27">Q67/R67</f>
+        <f t="shared" ref="S67:S104" si="27">Q67/R67</f>
         <v>0.13274336283185842</v>
       </c>
       <c r="T67" t="str">
-        <f t="shared" ref="T67:T82" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
+        <f t="shared" ref="T67:T104" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
         <v>DOWN</v>
       </c>
       <c r="U67" t="str">
-        <f t="shared" ref="U67:U82" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
+        <f t="shared" ref="U67:U104" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
         <v>DOWN</v>
       </c>
       <c r="V67">
@@ -8751,42 +8751,42 @@
         <v>4446.2920361945553</v>
       </c>
       <c r="X67">
-        <f t="shared" ref="X67:X82" si="30">V67-W67</f>
+        <f t="shared" ref="X67:X104" si="30">V67-W67</f>
         <v>-77.026288289409422</v>
       </c>
       <c r="Y67">
         <v>-31.595982785304837</v>
       </c>
       <c r="Z67" t="str">
-        <f t="shared" ref="Z67:Z82" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
+        <f t="shared" ref="Z67:Z104" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
         <v>DOWN</v>
       </c>
       <c r="AA67" t="str">
-        <f t="shared" ref="AA67:AA82" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
+        <f t="shared" ref="AA67:AA104" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
         <v>DOWN</v>
       </c>
       <c r="AB67" t="str">
-        <f t="shared" ref="AB67:AB82" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="AB67:AB104" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>DOWN</v>
       </c>
       <c r="AC67" t="str">
-        <f t="shared" ref="AC67:AC82" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
+        <f t="shared" ref="AC67:AC104" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
         <v>DOWN</v>
       </c>
       <c r="AD67">
-        <f t="shared" ref="AD67:AD82" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
+        <f t="shared" ref="AD67:AD104" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
         <v>4300.1000000000004</v>
       </c>
       <c r="AE67">
-        <f t="shared" ref="AE67:AE82" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
+        <f t="shared" ref="AE67:AE104" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
         <v>4269.8500000000004</v>
       </c>
       <c r="AF67">
-        <f t="shared" ref="AF67:AF82" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
+        <f t="shared" ref="AF67:AF104" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
         <v>4256.5</v>
       </c>
       <c r="AG67">
-        <f t="shared" ref="AG67:AG82" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
+        <f t="shared" ref="AG67:AG104" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
         <v>4243.1500000000005</v>
       </c>
     </row>
@@ -10606,93 +10606,2689 @@
       </c>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B83" s="1"/>
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="1">
+        <v>42975</v>
+      </c>
+      <c r="C83">
+        <v>4140</v>
+      </c>
+      <c r="D83">
+        <v>4274.8999999999996</v>
+      </c>
+      <c r="E83">
+        <v>4100</v>
+      </c>
+      <c r="F83">
+        <v>4221</v>
+      </c>
+      <c r="G83">
+        <f>_xll.TA_TYPPRICE(D83,E83,F83)</f>
+        <v>4198.6333333333332</v>
+      </c>
+      <c r="H83">
+        <v>4154.0476266574442</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J83">
+        <v>4161.9789801716533</v>
+      </c>
+      <c r="K83">
+        <v>4051.922809166871</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M83" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N83">
+        <v>76.797017736615004</v>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P83" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="25"/>
+        <v>121</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="26"/>
+        <v>174.89999999999964</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="27"/>
+        <v>0.69182389937107058</v>
+      </c>
+      <c r="T83" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U83" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V83">
+        <v>4111.54468654835</v>
+      </c>
+      <c r="W83">
+        <v>4184.0429299412854</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="30"/>
+        <v>-72.498243392935365</v>
+      </c>
+      <c r="Y83">
+        <v>-104.01370826938589</v>
+      </c>
+      <c r="Z83" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA83" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB83" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC83" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD83" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE83" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF83" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG83" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B84" s="1"/>
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="1">
+        <v>42976</v>
+      </c>
+      <c r="C84">
+        <v>4202</v>
+      </c>
+      <c r="D84">
+        <v>4225</v>
+      </c>
+      <c r="E84">
+        <v>4193.1499999999996</v>
+      </c>
+      <c r="F84">
+        <v>4200.1499999999996</v>
+      </c>
+      <c r="G84">
+        <f>_xll.TA_TYPPRICE(D84,E84,F84)</f>
+        <v>4206.0999999999995</v>
+      </c>
+      <c r="H84">
+        <v>4180.0738133287214</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J84">
+        <v>4175.9836512446191</v>
+      </c>
+      <c r="K84">
+        <v>4083.3066293520105</v>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M84" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N84">
+        <v>69.752211699178062</v>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P84" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="25"/>
+        <v>7</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="26"/>
+        <v>31.850000000000364</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="27"/>
+        <v>0.21978021978021728</v>
+      </c>
+      <c r="T84" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U84" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V84">
+        <v>4125.176273233219</v>
+      </c>
+      <c r="W84">
+        <v>4185.236046241931</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="30"/>
+        <v>-60.059773008712</v>
+      </c>
+      <c r="Y84">
+        <v>-95.222921217251113</v>
+      </c>
+      <c r="Z84" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA84" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB84" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC84" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD84" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE84" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF84" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG84" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B85" s="1"/>
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="1">
+        <v>42977</v>
+      </c>
+      <c r="C85">
+        <v>4159.6000000000004</v>
+      </c>
+      <c r="D85">
+        <v>4217.95</v>
+      </c>
+      <c r="E85">
+        <v>4156.25</v>
+      </c>
+      <c r="F85">
+        <v>4205</v>
+      </c>
+      <c r="G85">
+        <f>_xll.TA_TYPPRICE(D85,E85,F85)</f>
+        <v>4193.0666666666666</v>
+      </c>
+      <c r="H85">
+        <v>4186.5702399976944</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J85">
+        <v>4185.309506523593</v>
+      </c>
+      <c r="K85">
+        <v>4099.5162672737861</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M85" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N85">
+        <v>70.538047661907171</v>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P85" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="25"/>
+        <v>48.75</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="26"/>
+        <v>61.699999999999818</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="27"/>
+        <v>0.79011345218800877</v>
+      </c>
+      <c r="T85" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U85" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V85">
+        <v>4137.4568465819548</v>
+      </c>
+      <c r="W85">
+        <v>4186.7000428166029</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="30"/>
+        <v>-49.243196234648167</v>
+      </c>
+      <c r="Y85">
+        <v>-86.026976220730518</v>
+      </c>
+      <c r="Z85" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA85" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB85" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC85" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD85" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE85" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF85" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG85" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B86" s="1"/>
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="1">
+        <v>42978</v>
+      </c>
+      <c r="C86">
+        <v>4164.05</v>
+      </c>
+      <c r="D86">
+        <v>4275</v>
+      </c>
+      <c r="E86">
+        <v>4164.05</v>
+      </c>
+      <c r="F86">
+        <v>4230</v>
+      </c>
+      <c r="G86">
+        <f>_xll.TA_TYPPRICE(D86,E86,F86)</f>
+        <v>4223.0166666666664</v>
+      </c>
+      <c r="H86">
+        <v>4204.7934533321804</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J86">
+        <v>4205.2407272961282</v>
+      </c>
+      <c r="K86">
+        <v>4113.8570967685</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M86" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N86">
+        <v>74.762687278298458</v>
+      </c>
+      <c r="O86" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P86" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="25"/>
+        <v>65.949999999999818</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="26"/>
+        <v>110.94999999999982</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="27"/>
+        <v>0.59441189725101329</v>
+      </c>
+      <c r="T86" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U86" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V86">
+        <v>4151.6942548001152</v>
+      </c>
+      <c r="W86">
+        <v>4189.9074470524101</v>
+      </c>
+      <c r="X86">
+        <f t="shared" si="30"/>
+        <v>-38.213192252294903</v>
+      </c>
+      <c r="Y86">
+        <v>-76.464219427043389</v>
+      </c>
+      <c r="Z86" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA86" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB86" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC86" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD86" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE86" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF86" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG86" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B87" s="1"/>
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="1">
+        <v>42979</v>
+      </c>
+      <c r="C87">
+        <v>4277.95</v>
+      </c>
+      <c r="D87">
+        <v>4277.95</v>
+      </c>
+      <c r="E87">
+        <v>4200</v>
+      </c>
+      <c r="F87">
+        <v>4252.45</v>
+      </c>
+      <c r="G87">
+        <f>_xll.TA_TYPPRICE(D87,E87,F87)</f>
+        <v>4243.4666666666672</v>
+      </c>
+      <c r="H87">
+        <v>4224.1300599994238</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J87">
+        <v>4221.3983434525444</v>
+      </c>
+      <c r="K87">
+        <v>4132.9999641532777</v>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M87" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N87">
+        <v>78.26166218434129</v>
+      </c>
+      <c r="O87" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P87" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="25"/>
+        <v>52.449999999999818</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="26"/>
+        <v>77.949999999999818</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="27"/>
+        <v>0.67286722257857523</v>
+      </c>
+      <c r="T87" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U87" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V87">
+        <v>4167.1951386770206</v>
+      </c>
+      <c r="W87">
+        <v>4194.540228752232</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="30"/>
+        <v>-27.345090075211374</v>
+      </c>
+      <c r="Y87">
+        <v>-66.640393556676983</v>
+      </c>
+      <c r="Z87" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA87" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB87" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC87" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD87" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE87" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF87" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG87" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B88" s="1"/>
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="1">
+        <v>42982</v>
+      </c>
+      <c r="C88">
+        <v>4274</v>
+      </c>
+      <c r="D88">
+        <v>4369.8999999999996</v>
+      </c>
+      <c r="E88">
+        <v>4245.1000000000004</v>
+      </c>
+      <c r="F88">
+        <v>4355</v>
+      </c>
+      <c r="G88">
+        <f>_xll.TA_TYPPRICE(D88,E88,F88)</f>
+        <v>4323.333333333333</v>
+      </c>
+      <c r="H88">
+        <v>4273.7316966663784</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J88">
+        <v>4254.3987115742011</v>
+      </c>
+      <c r="K88">
+        <v>4157.9110832303268</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M88" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N88">
+        <v>87.86678527170217</v>
+      </c>
+      <c r="O88" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P88" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="25"/>
+        <v>109.89999999999964</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="26"/>
+        <v>124.79999999999927</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="27"/>
+        <v>0.88060897435897656</v>
+      </c>
+      <c r="T88" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U88" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V88">
+        <v>4196.0881942651713</v>
+      </c>
+      <c r="W88">
+        <v>4206.4261377335479</v>
+      </c>
+      <c r="X88">
+        <f t="shared" si="30"/>
+        <v>-10.337943468376579</v>
+      </c>
+      <c r="Y88">
+        <v>-55.379903539016901</v>
+      </c>
+      <c r="Z88" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA88" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB88" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC88" t="str">
+        <f t="shared" si="34"/>
+        <v>UP</v>
+      </c>
+      <c r="AD88">
+        <f t="shared" si="35"/>
+        <v>4259.3500000000004</v>
+      </c>
+      <c r="AE88">
+        <f t="shared" si="36"/>
+        <v>4292.75</v>
+      </c>
+      <c r="AF88">
+        <f t="shared" si="37"/>
+        <v>4307.5</v>
+      </c>
+      <c r="AG88">
+        <f t="shared" si="38"/>
+        <v>4322.25</v>
+      </c>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B89" s="1"/>
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="1">
+        <v>42983</v>
+      </c>
+      <c r="C89">
+        <v>4350</v>
+      </c>
+      <c r="D89">
+        <v>4390</v>
+      </c>
+      <c r="E89">
+        <v>4266.05</v>
+      </c>
+      <c r="F89">
+        <v>4341.05</v>
+      </c>
+      <c r="G89">
+        <f>_xll.TA_TYPPRICE(D89,E89,F89)</f>
+        <v>4332.3666666666659</v>
+      </c>
+      <c r="H89">
+        <v>4303.0491816665217</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J89">
+        <v>4284.532331224379</v>
+      </c>
+      <c r="K89">
+        <v>4181.9419536235873</v>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M89" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N89">
+        <v>81.726506458279644</v>
+      </c>
+      <c r="O89" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P89" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="25"/>
+        <v>75</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="26"/>
+        <v>123.94999999999982</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="27"/>
+        <v>0.60508269463493436</v>
+      </c>
+      <c r="T89" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U89" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V89">
+        <v>4218.3900105320681</v>
+      </c>
+      <c r="W89">
+        <v>4216.3982756792111</v>
+      </c>
+      <c r="X89">
+        <f t="shared" si="30"/>
+        <v>1.9917348528570074</v>
+      </c>
+      <c r="Y89">
+        <v>-43.905575860642116</v>
+      </c>
+      <c r="Z89" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA89" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB89" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC89" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD89" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE89" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF89" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG89" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B90" s="1"/>
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="1">
+        <v>42984</v>
+      </c>
+      <c r="C90">
+        <v>4341</v>
+      </c>
+      <c r="D90">
+        <v>4365</v>
+      </c>
+      <c r="E90">
+        <v>4282.05</v>
+      </c>
+      <c r="F90">
+        <v>4325</v>
+      </c>
+      <c r="G90">
+        <f>_xll.TA_TYPPRICE(D90,E90,F90)</f>
+        <v>4324.0166666666664</v>
+      </c>
+      <c r="H90">
+        <v>4313.5329241665941</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J90">
+        <v>4302.4140353967396</v>
+      </c>
+      <c r="K90">
+        <v>4204.1881861516795</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M90" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N90">
+        <v>74.262941082289728</v>
+      </c>
+      <c r="O90" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P90" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="25"/>
+        <v>42.949999999999818</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="26"/>
+        <v>82.949999999999818</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="27"/>
+        <v>0.51778179626280785</v>
+      </c>
+      <c r="T90" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U90" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V90">
+        <v>4234.7915473732883</v>
+      </c>
+      <c r="W90">
+        <v>4224.4428478511218</v>
+      </c>
+      <c r="X90">
+        <f t="shared" si="30"/>
+        <v>10.348699522166498</v>
+      </c>
+      <c r="Y90">
+        <v>-33.054720784080395</v>
+      </c>
+      <c r="Z90" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA90" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB90" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC90" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD90" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE90" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF90" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG90" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B91" s="1"/>
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="1">
+        <v>42985</v>
+      </c>
+      <c r="C91">
+        <v>4348</v>
+      </c>
+      <c r="D91">
+        <v>4348</v>
+      </c>
+      <c r="E91">
+        <v>4276</v>
+      </c>
+      <c r="F91">
+        <v>4276</v>
+      </c>
+      <c r="G91">
+        <f>_xll.TA_TYPPRICE(D91,E91,F91)</f>
+        <v>4300</v>
+      </c>
+      <c r="H91">
+        <v>4306.7664620832966</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J91">
+        <v>4312.5442497530194</v>
+      </c>
+      <c r="K91">
+        <v>4220.1463670068615</v>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M91" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N91">
+        <v>55.070392953498725</v>
+      </c>
+      <c r="O91" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P91" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="26"/>
+        <v>72</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="T91" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U91" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V91">
+        <v>4241.1313093158597</v>
+      </c>
+      <c r="W91">
+        <v>4228.2618961584458</v>
+      </c>
+      <c r="X91">
+        <f t="shared" si="30"/>
+        <v>12.869413157413874</v>
+      </c>
+      <c r="Y91">
+        <v>-23.869893995781538</v>
+      </c>
+      <c r="Z91" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA91" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB91" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC91" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD91" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE91" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF91" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG91" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B92" s="1"/>
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="1">
+        <v>42986</v>
+      </c>
+      <c r="C92">
+        <v>4277</v>
+      </c>
+      <c r="D92">
+        <v>4299</v>
+      </c>
+      <c r="E92">
+        <v>4259.95</v>
+      </c>
+      <c r="F92">
+        <v>4280</v>
+      </c>
+      <c r="G92">
+        <f>_xll.TA_TYPPRICE(D92,E92,F92)</f>
+        <v>4279.6500000000005</v>
+      </c>
+      <c r="H92">
+        <v>4293.2082310416481</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J92">
+        <v>4309.5344164745702</v>
+      </c>
+      <c r="K92">
+        <v>4228.9916187831141</v>
+      </c>
+      <c r="L92" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M92" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N92">
+        <v>56.224809291612942</v>
+      </c>
+      <c r="O92" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P92" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="25"/>
+        <v>20.050000000000182</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="26"/>
+        <v>39.050000000000182</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="27"/>
+        <v>0.51344430217669879</v>
+      </c>
+      <c r="T92" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U92" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V92">
+        <v>4247.1111078826507</v>
+      </c>
+      <c r="W92">
+        <v>4232.0943482948569</v>
+      </c>
+      <c r="X92">
+        <f t="shared" si="30"/>
+        <v>15.016759587793786</v>
+      </c>
+      <c r="Y92">
+        <v>-16.092563279066475</v>
+      </c>
+      <c r="Z92" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA92" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB92" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC92" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD92" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE92" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF92" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG92" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B93" s="1"/>
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="1">
+        <v>42989</v>
+      </c>
+      <c r="C93">
+        <v>4261.1000000000004</v>
+      </c>
+      <c r="D93">
+        <v>4315</v>
+      </c>
+      <c r="E93">
+        <v>4188</v>
+      </c>
+      <c r="F93">
+        <v>4197.95</v>
+      </c>
+      <c r="G93">
+        <f>_xll.TA_TYPPRICE(D93,E93,F93)</f>
+        <v>4233.6500000000005</v>
+      </c>
+      <c r="H93">
+        <v>4263.4291155208248</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J93">
+        <v>4310.7489905913326</v>
+      </c>
+      <c r="K93">
+        <v>4219.8823701646443</v>
+      </c>
+      <c r="L93" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M93" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N93">
+        <v>33.894718689589297</v>
+      </c>
+      <c r="O93" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P93" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="25"/>
+        <v>9.9499999999998181</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="26"/>
+        <v>127</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="27"/>
+        <v>7.8346456692911959E-2</v>
+      </c>
+      <c r="T93" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U93" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V93">
+        <v>4239.5478605160888</v>
+      </c>
+      <c r="W93">
+        <v>4229.5651373100527</v>
+      </c>
+      <c r="X93">
+        <f t="shared" si="30"/>
+        <v>9.9827232060360984</v>
+      </c>
+      <c r="Y93">
+        <v>-10.87750598204596</v>
+      </c>
+      <c r="Z93" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA93" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB93" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC93" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD93" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE93" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF93" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG93" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B94" s="1"/>
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="1">
+        <v>42990</v>
+      </c>
+      <c r="C94">
+        <v>4230</v>
+      </c>
+      <c r="D94">
+        <v>4248.95</v>
+      </c>
+      <c r="E94">
+        <v>4190</v>
+      </c>
+      <c r="F94">
+        <v>4200</v>
+      </c>
+      <c r="G94">
+        <f>_xll.TA_TYPPRICE(D94,E94,F94)</f>
+        <v>4212.9833333333336</v>
+      </c>
+      <c r="H94">
+        <v>4238.2062244270792</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J94">
+        <v>4297.0158815710365</v>
+      </c>
+      <c r="K94">
+        <v>4213.2418434613901</v>
+      </c>
+      <c r="L94" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M94" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N94">
+        <v>34.704616564385709</v>
+      </c>
+      <c r="O94" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P94" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="25"/>
+        <v>10</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="26"/>
+        <v>58.949999999999818</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="27"/>
+        <v>0.16963528413910145</v>
+      </c>
+      <c r="T94" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U94" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V94">
+        <v>4233.4635742828441</v>
+      </c>
+      <c r="W94">
+        <v>4227.3751271389374</v>
+      </c>
+      <c r="X94">
+        <f t="shared" si="30"/>
+        <v>6.0884471439067056</v>
+      </c>
+      <c r="Y94">
+        <v>-7.4843153568554275</v>
+      </c>
+      <c r="Z94" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA94" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB94" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC94" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD94" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE94" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF94" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG94" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B95" s="1"/>
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="1">
+        <v>42991</v>
+      </c>
+      <c r="C95">
+        <v>4202.45</v>
+      </c>
+      <c r="D95">
+        <v>4288</v>
+      </c>
+      <c r="E95">
+        <v>4168.6499999999996</v>
+      </c>
+      <c r="F95">
+        <v>4197</v>
+      </c>
+      <c r="G95">
+        <f>_xll.TA_TYPPRICE(D95,E95,F95)</f>
+        <v>4217.8833333333332</v>
+      </c>
+      <c r="H95">
+        <v>4228.0447788802066</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J95">
+        <v>4295.0123523330285</v>
+      </c>
+      <c r="K95">
+        <v>4203.332544914414</v>
+      </c>
+      <c r="L95" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M95" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N95">
+        <v>33.943882225751878</v>
+      </c>
+      <c r="O95" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P95" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="25"/>
+        <v>28.350000000000364</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="26"/>
+        <v>119.35000000000036</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="27"/>
+        <v>0.23753665689149792</v>
+      </c>
+      <c r="T95" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U95" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V95">
+        <v>4227.8537936239454</v>
+      </c>
+      <c r="W95">
+        <v>4225.125117721238</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="30"/>
+        <v>2.7286759027074368</v>
+      </c>
+      <c r="Y95">
+        <v>-5.441717104942855</v>
+      </c>
+      <c r="Z95" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA95" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB95" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC95" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD95" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE95" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF95" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG95" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B96" s="1"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="1"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="1"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="1"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="1"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="1"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="1"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="1"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="1"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="1">
+        <v>42992</v>
+      </c>
+      <c r="C96">
+        <v>4280.95</v>
+      </c>
+      <c r="D96">
+        <v>4280.95</v>
+      </c>
+      <c r="E96">
+        <v>4188.1000000000004</v>
+      </c>
+      <c r="F96">
+        <v>4210</v>
+      </c>
+      <c r="G96">
+        <f>_xll.TA_TYPPRICE(D96,E96,F96)</f>
+        <v>4226.3499999999995</v>
+      </c>
+      <c r="H96">
+        <v>4227.1973894401035</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J96">
+        <v>4291.8873851479111</v>
+      </c>
+      <c r="K96">
+        <v>4199.9475349334334</v>
+      </c>
+      <c r="L96" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M96" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N96">
+        <v>40.954621140311211</v>
+      </c>
+      <c r="O96" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P96" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="25"/>
+        <v>21.899999999999636</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="26"/>
+        <v>92.849999999999454</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="27"/>
+        <v>0.23586429725363237</v>
+      </c>
+      <c r="T96" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U96" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V96">
+        <v>4225.107056143338</v>
+      </c>
+      <c r="W96">
+        <v>4224.004738630776</v>
+      </c>
+      <c r="X96">
+        <f t="shared" si="30"/>
+        <v>1.1023175125619673</v>
+      </c>
+      <c r="Y96">
+        <v>-4.1329101814418907</v>
+      </c>
+      <c r="Z96" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA96" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB96" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC96" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD96" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE96" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF96" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG96" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="1">
+        <v>42993</v>
+      </c>
+      <c r="C97">
+        <v>4155.05</v>
+      </c>
+      <c r="D97">
+        <v>4340</v>
+      </c>
+      <c r="E97">
+        <v>4155.05</v>
+      </c>
+      <c r="F97">
+        <v>4300</v>
+      </c>
+      <c r="G97">
+        <f>_xll.TA_TYPPRICE(D97,E97,F97)</f>
+        <v>4265.0166666666664</v>
+      </c>
+      <c r="H97">
+        <v>4246.107028053385</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J97">
+        <v>4302.5790773372646</v>
+      </c>
+      <c r="K97">
+        <v>4189.9703049482259</v>
+      </c>
+      <c r="L97" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M97" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N97">
+        <v>69.222501243556295</v>
+      </c>
+      <c r="O97" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P97" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="25"/>
+        <v>144.94999999999982</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="26"/>
+        <v>184.94999999999982</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="27"/>
+        <v>0.7837253311705864</v>
+      </c>
+      <c r="T97" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U97" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V97">
+        <v>4236.6290475059013</v>
+      </c>
+      <c r="W97">
+        <v>4229.6340172507189</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="30"/>
+        <v>6.9950302551824279</v>
+      </c>
+      <c r="Y97">
+        <v>-1.9073220941170272</v>
+      </c>
+      <c r="Z97" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA97" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB97" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC97" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD97" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE97" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF97" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG97" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="1">
+        <v>42996</v>
+      </c>
+      <c r="C98">
+        <v>4346.3999999999996</v>
+      </c>
+      <c r="D98">
+        <v>4363</v>
+      </c>
+      <c r="E98">
+        <v>4280</v>
+      </c>
+      <c r="F98">
+        <v>4332</v>
+      </c>
+      <c r="G98">
+        <f>_xll.TA_TYPPRICE(D98,E98,F98)</f>
+        <v>4325</v>
+      </c>
+      <c r="H98">
+        <v>4285.5535140266929</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J98">
+        <v>4316.0059490400945</v>
+      </c>
+      <c r="K98">
+        <v>4209.9769038486202</v>
+      </c>
+      <c r="L98" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M98" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N98">
+        <v>74.622294807474987</v>
+      </c>
+      <c r="O98" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P98" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="25"/>
+        <v>52</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="26"/>
+        <v>83</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="27"/>
+        <v>0.62650602409638556</v>
+      </c>
+      <c r="T98" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U98" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V98">
+        <v>4251.3015017357629</v>
+      </c>
+      <c r="W98">
+        <v>4237.2166826395542</v>
+      </c>
+      <c r="X98">
+        <f t="shared" si="30"/>
+        <v>14.084819096208776</v>
+      </c>
+      <c r="Y98">
+        <v>1.2911061439481335</v>
+      </c>
+      <c r="Z98" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA98" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB98" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC98" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD98" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE98" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF98" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG98" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="1">
+        <v>42997</v>
+      </c>
+      <c r="C99">
+        <v>4326.45</v>
+      </c>
+      <c r="D99">
+        <v>4399</v>
+      </c>
+      <c r="E99">
+        <v>4263.05</v>
+      </c>
+      <c r="F99">
+        <v>4297</v>
+      </c>
+      <c r="G99">
+        <f>_xll.TA_TYPPRICE(D99,E99,F99)</f>
+        <v>4319.6833333333334</v>
+      </c>
+      <c r="H99">
+        <v>4302.6184236800127</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J99">
+        <v>4334.4490714756294</v>
+      </c>
+      <c r="K99">
+        <v>4221.7709252155937</v>
+      </c>
+      <c r="L99" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M99" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N99">
+        <v>60.185687606777449</v>
+      </c>
+      <c r="O99" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P99" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="25"/>
+        <v>33.949999999999818</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="26"/>
+        <v>135.94999999999982</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="27"/>
+        <v>0.24972416329532815</v>
+      </c>
+      <c r="T99" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U99" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V99">
+        <v>4258.3320399302611</v>
+      </c>
+      <c r="W99">
+        <v>4241.6450765181053</v>
+      </c>
+      <c r="X99">
+        <f t="shared" si="30"/>
+        <v>16.686963412155819</v>
+      </c>
+      <c r="Y99">
+        <v>4.3702775975896708</v>
+      </c>
+      <c r="Z99" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA99" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB99" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC99" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD99" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE99" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF99" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG99" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="1">
+        <v>42998</v>
+      </c>
+      <c r="C100">
+        <v>4299.95</v>
+      </c>
+      <c r="D100">
+        <v>4325</v>
+      </c>
+      <c r="E100">
+        <v>4249.1000000000004</v>
+      </c>
+      <c r="F100">
+        <v>4250</v>
+      </c>
+      <c r="G100">
+        <f>_xll.TA_TYPPRICE(D100,E100,F100)</f>
+        <v>4274.7</v>
+      </c>
+      <c r="H100">
+        <v>4288.6592118400058</v>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J100">
+        <v>4332.3492778143782</v>
+      </c>
+      <c r="K100">
+        <v>4227.844052945462</v>
+      </c>
+      <c r="L100" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M100" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N100">
+        <v>45.432060560619412</v>
+      </c>
+      <c r="O100" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P100" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="25"/>
+        <v>0.8999999999996362</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="26"/>
+        <v>75.899999999999636</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="27"/>
+        <v>1.1857707509876686E-2</v>
+      </c>
+      <c r="T100" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U100" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V100">
+        <v>4257.0501876332983</v>
+      </c>
+      <c r="W100">
+        <v>4242.2639597389862</v>
+      </c>
+      <c r="X100">
+        <f t="shared" si="30"/>
+        <v>14.786227894312105</v>
+      </c>
+      <c r="Y100">
+        <v>6.4534676569341585</v>
+      </c>
+      <c r="Z100" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA100" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB100" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC100" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD100" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE100" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF100" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG100" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="1">
+        <v>42999</v>
+      </c>
+      <c r="C101">
+        <v>4310</v>
+      </c>
+      <c r="D101">
+        <v>4420</v>
+      </c>
+      <c r="E101">
+        <v>4250</v>
+      </c>
+      <c r="F101">
+        <v>4281.2</v>
+      </c>
+      <c r="G101">
+        <f>_xll.TA_TYPPRICE(D101,E101,F101)</f>
+        <v>4317.0666666666666</v>
+      </c>
+      <c r="H101">
+        <v>4302.8629392533367</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J101">
+        <v>4351.8272160778497</v>
+      </c>
+      <c r="K101">
+        <v>4232.7675967353589</v>
+      </c>
+      <c r="L101" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M101" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N101">
+        <v>54.655571301428743</v>
+      </c>
+      <c r="O101" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P101" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="25"/>
+        <v>31.199999999999818</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="26"/>
+        <v>170</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="27"/>
+        <v>0.1835294117647048</v>
+      </c>
+      <c r="T101" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U101" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V101">
+        <v>4260.7655433820219</v>
+      </c>
+      <c r="W101">
+        <v>4245.1481108694315</v>
+      </c>
+      <c r="X101">
+        <f t="shared" si="30"/>
+        <v>15.617432512590312</v>
+      </c>
+      <c r="Y101">
+        <v>8.2862606280653885</v>
+      </c>
+      <c r="Z101" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA101" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB101" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC101" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD101" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE101" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF101" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG101" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="1">
+        <v>43000</v>
+      </c>
+      <c r="C102">
+        <v>4280</v>
+      </c>
+      <c r="D102">
+        <v>4319</v>
+      </c>
+      <c r="E102">
+        <v>4134.45</v>
+      </c>
+      <c r="F102">
+        <v>4159.95</v>
+      </c>
+      <c r="G102">
+        <f>_xll.TA_TYPPRICE(D102,E102,F102)</f>
+        <v>4204.4666666666672</v>
+      </c>
+      <c r="H102">
+        <v>4253.6648029600019</v>
+      </c>
+      <c r="I102" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J102">
+        <v>4344.5322791716608</v>
+      </c>
+      <c r="K102">
+        <v>4210.9192419052788</v>
+      </c>
+      <c r="L102" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M102" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N102">
+        <v>30.01240001129122</v>
+      </c>
+      <c r="O102" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P102" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="25"/>
+        <v>25.5</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="26"/>
+        <v>184.55000000000018</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="27"/>
+        <v>0.13817393660254659</v>
+      </c>
+      <c r="T102" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U102" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V102">
+        <v>4245.2554597847875</v>
+      </c>
+      <c r="W102">
+        <v>4238.8371396939183</v>
+      </c>
+      <c r="X102">
+        <f t="shared" si="30"/>
+        <v>6.4183200908692015</v>
+      </c>
+      <c r="Y102">
+        <v>7.9126725206261508</v>
+      </c>
+      <c r="Z102" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA102" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB102" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC102" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD102" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE102" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF102" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG102" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="1">
+        <v>43003</v>
+      </c>
+      <c r="C103">
+        <v>4190</v>
+      </c>
+      <c r="D103">
+        <v>4207.5</v>
+      </c>
+      <c r="E103">
+        <v>4095</v>
+      </c>
+      <c r="F103">
+        <v>4120</v>
+      </c>
+      <c r="G103">
+        <f>_xll.TA_TYPPRICE(D103,E103,F103)</f>
+        <v>4140.833333333333</v>
+      </c>
+      <c r="H103">
+        <v>4197.2490681466679</v>
+      </c>
+      <c r="I103" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J103">
+        <v>4314.0806615779584</v>
+      </c>
+      <c r="K103">
+        <v>4185.1594103707721</v>
+      </c>
+      <c r="L103" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M103" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N103">
+        <v>25.312010496532356</v>
+      </c>
+      <c r="O103" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P103" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="25"/>
+        <v>25</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="26"/>
+        <v>112.5</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="27"/>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="T103" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U103" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V103">
+        <v>4225.9853890486665</v>
+      </c>
+      <c r="W103">
+        <v>4230.0343886054798</v>
+      </c>
+      <c r="X103">
+        <f t="shared" si="30"/>
+        <v>-4.0489995568132144</v>
+      </c>
+      <c r="Y103">
+        <v>5.5203381051382774</v>
+      </c>
+      <c r="Z103" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA103" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB103" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC103" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD103" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE103" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF103" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG103" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="1">
+        <v>43004</v>
+      </c>
+      <c r="C104">
+        <v>4090.4</v>
+      </c>
+      <c r="D104">
+        <v>4195</v>
+      </c>
+      <c r="E104">
+        <v>4075.5</v>
+      </c>
+      <c r="F104">
+        <v>4130</v>
+      </c>
+      <c r="G104">
+        <f>_xll.TA_TYPPRICE(D104,E104,F104)</f>
+        <v>4133.5</v>
+      </c>
+      <c r="H104">
+        <v>4165.374534073334</v>
+      </c>
+      <c r="I104" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J104">
+        <v>4287.6182923384122</v>
+      </c>
+      <c r="K104">
+        <v>4160.7906525106009</v>
+      </c>
+      <c r="L104" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M104" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N104">
+        <v>28.801004465247726</v>
+      </c>
+      <c r="O104" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P104" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="25"/>
+        <v>54.5</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="26"/>
+        <v>119.5</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="27"/>
+        <v>0.45606694560669458</v>
+      </c>
+      <c r="T104" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U104" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V104">
+        <v>4211.2184061181024</v>
+      </c>
+      <c r="W104">
+        <v>4222.6244338939623</v>
+      </c>
+      <c r="X104">
+        <f t="shared" si="30"/>
+        <v>-11.406027775859911</v>
+      </c>
+      <c r="Y104">
+        <v>2.1350649289386392</v>
+      </c>
+      <c r="Z104" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA104" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB104" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC104" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD104" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE104" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF104" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG104" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B105" s="1"/>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B106" s="1"/>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B107" s="1"/>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
